--- a/testdata/inter_test_data.xlsx
+++ b/testdata/inter_test_data.xlsx
@@ -1,29 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20359"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgramSourceCode\interface_framework\stu2020531\interfaceFrameExcel\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A88C1AD-95F0-457C-92CF-23522B04CF9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="94" windowWidth="14794" windowHeight="8014" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="90" windowWidth="14790" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="API" sheetId="1" r:id="rId1"/>
-    <sheet name="注册接口用例" sheetId="2" r:id="rId2"/>
-    <sheet name="登录接口用例" sheetId="3" r:id="rId3"/>
-    <sheet name="查询博文用例" sheetId="4" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="API" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="注册接口用例" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="登录接口用例" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="查询博文用例" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="125725" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>编号</t>
   </si>
@@ -49,6 +43,9 @@
     <t>register</t>
   </si>
   <si>
+    <t>http://39.100.104.214:8080/register/</t>
+  </si>
+  <si>
     <t>post</t>
   </si>
   <si>
@@ -64,7 +61,7 @@
     <t>login</t>
   </si>
   <si>
-    <t>http://39.106.41.11:8080/login/</t>
+    <t>http://39.100.104.214:8080/login/</t>
   </si>
   <si>
     <t>登录接口用例</t>
@@ -73,7 +70,7 @@
     <t>query</t>
   </si>
   <si>
-    <t>http://39.106.41.11:8080/getBlogContent/</t>
+    <t>http://39.100.104.214:8080/getBlogContent/</t>
   </si>
   <si>
     <t>get</t>
@@ -115,18 +112,27 @@
     <t>ErrorInfo</t>
   </si>
   <si>
-    <t>{"username":"zhwu1231","password":"wcx123wac1","email":"wcx@qq.com"}</t>
+    <t>{"username":"zhwu123123","password":"wcx123wac1","email":"wcx@qq.com"}</t>
+  </si>
+  <si>
+    <t>{'username': 'zhwu1231', 'code': '01'}</t>
   </si>
   <si>
     <t>{"request":["username","password"],"response":["code"]}</t>
   </si>
   <si>
-    <t>faild</t>
+    <t>{"code":"00","userid":{"type":"N"}}</t>
+  </si>
+  <si>
+    <t>{'username': 'zhwu123123', 'code': '01'}</t>
   </si>
   <si>
     <t>{"username":"wangwu121x","password":"wcx123wac","email":"wcx@qq.com"}</t>
   </si>
   <si>
+    <t>{'code': '00', 'userid': 160}</t>
+  </si>
+  <si>
     <t>{"code":"00"}</t>
   </si>
   <si>
@@ -137,86 +143,75 @@
   </si>
   <si>
     <t>{'token': '653d726e2a6b9b6dda4336f036978eed', 'code': '00', 'userid': 154, 'login_time': '2020-06-07 17:19:51'}</t>
-  </si>
-  <si>
-    <t>{'code': '01', 'userid': ''}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":"00","userid":{"type":"N"}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'username': 'zhwu1231', 'code': '01'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'code': '00', 'userid': 160}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":"00"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code": "00", "userid": {"type": "N"}, "id": {"value": "^\d+$"}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"request":{"username":"register-&gt;1","password":"register-&gt;1"},
 "response":{"userid":"login-&gt;1", "token":"login-1"}
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://39.106.41.11:8080/register/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code": "00", "userid": {"type": "N"}, "id": {"value": "^\d+$"}}</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>{'code': '01', 'userid': 'not exists'}</t>
+  </si>
+  <si>
+    <t>{'username': 'wangwu121x', 'code': '01'}</t>
+  </si>
+  <si>
+    <t>{'code': '01'}</t>
+  </si>
+  <si>
+    <t>{'token': 'ca14c7a95225ec9832baa5096db3918e', 'code': '00', 'userid': 1252, 'login_time': '2021-03-28 17:39:04'}</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -242,10 +237,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -253,21 +248,12 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -309,7 +295,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,27 +327,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,24 +361,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -586,24 +536,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="41.765625" customWidth="1"/>
-    <col min="4" max="4" width="14.61328125" customWidth="1"/>
-    <col min="5" max="5" width="16.07421875" customWidth="1"/>
-    <col min="6" max="6" width="15.23046875" customWidth="1"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="41.75" customWidth="1" min="3" max="3"/>
+    <col width="14.625" customWidth="1" min="4" max="4"/>
+    <col width="16.125" customWidth="1" min="5" max="5"/>
+    <col width="15.25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -626,367 +580,355 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:7">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C2" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C3" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C4" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C2" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C3" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C4" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C2" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C3" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C4" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C2" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C3" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C4" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C2" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C3" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C4" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C2" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C3" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C4" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C2" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C3" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C4" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="38.23046875" customWidth="1"/>
-    <col min="2" max="2" width="11.23046875" customWidth="1"/>
-    <col min="3" max="3" width="12.61328125" customWidth="1"/>
-    <col min="4" max="4" width="37.53515625" customWidth="1"/>
-    <col min="5" max="5" width="23.23046875" customWidth="1"/>
-    <col min="6" max="6" width="21.07421875" customWidth="1"/>
-    <col min="9" max="9" width="13.765625" customWidth="1"/>
+    <col width="38.25" customWidth="1" min="1" max="1"/>
+    <col width="11.25" customWidth="1" min="2" max="2"/>
+    <col width="12.625" customWidth="1" min="3" max="3"/>
+    <col width="37.5" customWidth="1" min="4" max="4"/>
+    <col width="23.25" customWidth="1" min="5" max="5"/>
+    <col width="21.125" customWidth="1" min="6" max="6"/>
+    <col width="13.75" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="70.849999999999994" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="70.90000000000001" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="n"/>
+      <c r="C2" t="n">
         <v>200</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="70.90000000000001" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" t="n">
+        <v>200</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="70.849999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3">
-        <v>200</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="33.765625" customWidth="1"/>
-    <col min="2" max="2" width="21.3046875" customWidth="1"/>
-    <col min="3" max="3" width="15.69140625" customWidth="1"/>
-    <col min="4" max="4" width="34.07421875" customWidth="1"/>
-    <col min="5" max="5" width="12.4609375" customWidth="1"/>
-    <col min="6" max="6" width="12.23046875" customWidth="1"/>
-    <col min="7" max="8" width="11.23046875" customWidth="1"/>
+    <col width="33.75" customWidth="1" min="1" max="1"/>
+    <col width="21.25" customWidth="1" min="2" max="2"/>
+    <col width="15.75" customWidth="1" min="3" max="3"/>
+    <col width="34.125" customWidth="1" min="4" max="4"/>
+    <col width="12.5" customWidth="1" min="5" max="5"/>
+    <col width="12.25" customWidth="1" min="6" max="6"/>
+    <col width="11.25" customWidth="1" min="7" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="99" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="C2" t="n">
         <v>200</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" t="s"/>
+    </row>
+    <row r="3" spans="1:9" ht="113.1" customHeight="1">
+      <c r="B3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
         <v>43</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="113.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="12.69140625" customWidth="1"/>
-    <col min="3" max="3" width="12.4609375" customWidth="1"/>
-    <col min="4" max="4" width="14.4609375" customWidth="1"/>
-    <col min="5" max="6" width="12.23046875" customWidth="1"/>
+    <col width="12.75" customWidth="1" min="1" max="2"/>
+    <col width="12.5" customWidth="1" min="3" max="3"/>
+    <col width="14.5" customWidth="1" min="4" max="4"/>
+    <col width="12.25" customWidth="1" min="5" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="n">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>200</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>